--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_13-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_13-08.xlsx
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>0:3</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -1071,17 +1074,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1097,17 +1100,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1123,17 +1126,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1141,7 +1144,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1149,17 +1152,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1167,7 +1170,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1175,13 +1178,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1193,7 +1196,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1201,13 +1204,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1227,17 +1230,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1245,7 +1248,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1253,17 +1256,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1279,51 +1282,77 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="K26" s="10">
-        <v>1533.04</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="11">
+    <row r="26" ht="24.75" customHeight="1">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c t="s" r="B26" s="7">
         <v>44</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c t="s" r="F27" s="12">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c t="s" r="H26" s="8">
+        <v>14</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9">
+        <v>30</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c t="s" r="N26" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="26.25" customHeight="1">
+      <c r="K27" s="10">
+        <v>1556.04</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="11">
         <v>45</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c t="s" r="I27" s="14">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c t="s" r="F28" s="12">
         <v>46</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+      <c t="s" r="I28" s="14">
+        <v>47</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="80">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1397,10 +1426,13 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:N28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
